--- a/biology/Médecine/Point_de_côté/Point_de_côté.xlsx
+++ b/biology/Médecine/Point_de_côté/Point_de_côté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Point_de_c%C3%B4t%C3%A9</t>
+          <t>Point_de_côté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un point de côté, également appelé une « pointe de côté », est une douleur abdominale aiguë apparaissant sur le côté du corps (généralement en dessous des côtes, à droite et légèrement à l'arrière) et qui survient généralement pendant un effort physique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Point_de_c%C3%B4t%C3%A9</t>
+          <t>Point_de_côté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les causes exactes du point de côté ne sont pas encore connues à ce jour. Les deux principales hypothèses sont les suivantes :
 crampe musculaire du diaphragme, due à un défaut d'oxygénation lors de l'exercice physique ;
 douleur liée à la traction exercée, pendant l'exercice physique, par les organes abdominaux (foie, estomac, rate) sur les ligaments qui les lient au diaphragme.
 Mais d'autres hypothèses ont aussi été avancées :
-irritation de la plèvre[1] ;
+irritation de la plèvre ;
 douleurs musculaires liées à la diminution de l'oxygénation des muscles en faveur du système digestif après un repas ;
 douleurs de la rate (à gauche) ou du foie (à droite) liées à une surcharge sanguine ;
 pression des gaz issus de la fermentation dans le tube digestif ;
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Point_de_c%C3%B4t%C3%A9</t>
+          <t>Point_de_côté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Comment l'éviter ?</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un point de côté peut se faire ressentir lorsque l'on respire mal, souvent lors d'une course. Afin de l'éviter, il suffit de contrôler sa respiration lors d'un exercice physique, en inspirant et expirant régulièrement ; par exemple, lors d'une course, inspirer durant deux pas et expirer durant deux pas. Cela évitera non seulement les points de côté, mais aussi les crampes, essoufflements, etc.
 Pour le faire passer, il suffit de respirer plus lentement en gonflant le thorax, et en relâchant le bas-ventre le plus possible. De cette façon, le point de côté passe au bout de deux ou trois minutes.
